--- a/Scrum/Proyect/Agile-test-plan-template.xlsx
+++ b/Scrum/Proyect/Agile-test-plan-template.xlsx
@@ -1,519 +1,103 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="1420" yWindow="3060" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Macintosh Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>2</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="2" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+      <vt:lpstr>Sheet2</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <Company/>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>14.0300</AppVersion>
+</Properties>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Written By:</t>
-  </si>
-  <si>
-    <t>Tested By:</t>
-  </si>
-  <si>
-    <t>Browser:</t>
-  </si>
-  <si>
-    <t>Version:</t>
-  </si>
-  <si>
-    <t>Description:</t>
-  </si>
-  <si>
-    <t>Tested On:</t>
-  </si>
-  <si>
-    <t>Agile Test Plan</t>
-  </si>
-  <si>
-    <t>Test #</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Expected Results</t>
-  </si>
-  <si>
-    <t>Actual Results</t>
-  </si>
-  <si>
-    <t>Pass?</t>
-  </si>
-  <si>
-    <t>Logging in</t>
-  </si>
-  <si>
-    <t>Should get to home screen</t>
-  </si>
-  <si>
-    <t>User directed to different page</t>
-  </si>
-  <si>
-    <t>Signing up for webinar</t>
-  </si>
-  <si>
-    <t>Get confirmation email</t>
-  </si>
-  <si>
-    <t>Confirmation email received</t>
-  </si>
-  <si>
-    <t>Click magnifying glass</t>
-  </si>
-  <si>
-    <t>Text changes sizes</t>
-  </si>
-  <si>
-    <t>Whole page gets bigger</t>
-  </si>
-  <si>
-    <t>Go to blog post</t>
-  </si>
-  <si>
-    <t>Click blog post hero image</t>
-  </si>
-  <si>
-    <t>Create a Test Plan in Smartsheet</t>
-  </si>
-</sst>
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Emily Esposito</dc:creator>
+  <cp:lastModifiedBy>Emily Esposito</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2016-02-09T21:44:44Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2016-02-17T22:48:42Z</dcterms:modified>
+</cp:coreProperties>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="28"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="6">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-</styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$11" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$20" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$21" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$22" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$23" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$24" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$25" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$12" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$13" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Sheet2!$A$14" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$15" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$16" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$17" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$18" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\ctrlProps\ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Sheet2!$A$19" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\drawings\drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1209,7 +793,359 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="28"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="6">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+</styleSheet>
+</file>
+
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1529,7 +1465,27 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="1420" yWindow="3060" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U67"/>
   <sheetViews>
@@ -1560,8 +1516,10 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="23">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Agile Test Plan</t>
+        </is>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1631,13 +1589,17 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="18">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Browser:</t>
+        </is>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -1658,13 +1620,17 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="18">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Version:</t>
+        </is>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -1685,13 +1651,17 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" ht="18">
-      <c r="A7" s="5" t="s">
-        <v>2</v>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Written By:</t>
+        </is>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Description:</t>
+        </is>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -1712,13 +1682,17 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="18">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Tested By:</t>
+        </is>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Tested On:</t>
+        </is>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -1762,23 +1736,35 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21" ht="28" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Test #</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Expected Results</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Actual Results</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>Pass?</t>
+        </is>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1803,14 +1789,20 @@
       <c r="B11" s="11">
         <v>42435</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Logging in</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Should get to home screen</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>User directed to different page</t>
+        </is>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
@@ -1836,14 +1828,20 @@
       <c r="B12" s="11">
         <v>42441</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Signing up for webinar</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Get confirmation email</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>Confirmation email received</t>
+        </is>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
@@ -1869,14 +1867,20 @@
       <c r="B13" s="11">
         <v>42449</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Click magnifying glass</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Whole page gets bigger</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>Text changes sizes</t>
+        </is>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
@@ -1902,14 +1906,20 @@
       <c r="B14" s="11">
         <v>42461</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Click blog post hero image</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Go to blog post</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>Go to blog post</t>
+        </is>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
@@ -2205,8 +2215,10 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="13" t="s">
-        <v>26</v>
+      <c r="A27" s="13" t="inlineStr">
+        <is>
+          <t>Create a Test Plan in Smartsheet</t>
+        </is>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -3843,7 +3855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A11:A25"/>
   <sheetViews>
